--- a/Donnés_Smartphone/Données Smartphone.xlsx
+++ b/Donnés_Smartphone/Données Smartphone.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdrToledoCa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abimuthulin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="11_5776D20AF503946E9B22301F329CB94B2A1CD829" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D494EC-AA81-4216-BC96-B4283FC3FDAA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t xml:space="preserve">Modèle </t>
   </si>
@@ -233,12 +232,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$CHF]"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +303,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -328,27 +327,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2F43FA2-B1F7-442E-957D-3E563A50794F}" name="Tableau1" displayName="Tableau1" ref="A1:H31" totalsRowShown="0">
-  <autoFilter ref="A1:H31" xr:uid="{B2F43FA2-B1F7-442E-957D-3E563A50794F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H31" totalsRowShown="0">
+  <autoFilter ref="A1:H31"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{5C488E6B-BA1A-4CBC-9835-647CBCE5BB6C}" name="Modèle "/>
-    <tableColumn id="3" xr3:uid="{ACCF952E-2E13-4E0A-921E-232A035A4CE6}" name="Marque"/>
-    <tableColumn id="4" xr3:uid="{C4E48EEF-7ABB-4CD9-9E97-F752E182316D}" name="Mémoire ROM (Go)"/>
-    <tableColumn id="5" xr3:uid="{FFD23243-D0D2-4BA6-9834-D4F8D2CF4DEB}" name="Taille écran (pouces)"/>
-    <tableColumn id="6" xr3:uid="{5C9C45F4-CB60-4BEF-B09D-67EB744D2B49}" name="Prix (CHF)" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{759DF15E-8E56-4EE7-83E8-DAF53B7FDE5A}" name="OS"/>
-    <tableColumn id="8" xr3:uid="{D2C9E46E-D65B-4574-BF2C-B55209F17EA2}" name="Autonomie (h)" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{2E4FC660-D56E-46C4-8357-354AA9EDEA5E}" name="Image (URL)"/>
+    <tableColumn id="2" name="Modèle "/>
+    <tableColumn id="3" name="Marque"/>
+    <tableColumn id="4" name="Mémoire ROM (Go)"/>
+    <tableColumn id="5" name="Taille écran (pouces)"/>
+    <tableColumn id="6" name="Prix (CHF)" dataDxfId="1"/>
+    <tableColumn id="7" name="OS"/>
+    <tableColumn id="8" name="Autonomie (h)" dataDxfId="0"/>
+    <tableColumn id="9" name="Image (URL)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{118D3915-7252-400A-8A9A-616D1AB672EC}" name="Tableau2" displayName="Tableau2" ref="I1:I32" totalsRowShown="0">
-  <autoFilter ref="I1:I32" xr:uid="{118D3915-7252-400A-8A9A-616D1AB672EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="I1:I32" totalsRowShown="0">
+  <autoFilter ref="I1:I32"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CBAE23CD-64C6-43C7-BBA1-071A04CDB936}" name="ID"/>
+    <tableColumn id="1" name="ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -616,14 +615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -634,7 +633,7 @@
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -692,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -718,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -747,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -776,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -805,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -834,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -863,12 +862,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="5"/>
@@ -876,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -889,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -902,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -915,7 +917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -928,7 +930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -941,7 +943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
@@ -954,7 +956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -967,7 +969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -980,7 +982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -993,7 +995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1006,7 +1008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1097,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
@@ -1162,18 +1164,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G32" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{DA62A5DF-4A91-4240-B5ED-4FEA2D61FDA7}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{A6F82C4F-F731-4920-8855-A3354DEA2D65}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{315577F9-C965-4B31-A204-40E8B36EEA04}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{20915B1E-C226-406E-BF7D-500D6F27C190}"/>
-    <hyperlink ref="H4" r:id="rId5" xr:uid="{30CFDE73-F31C-4749-BD3A-3046D4DDDD9A}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{EEDF6ADA-045A-4C3B-BBD5-A810404F5F5A}"/>
-    <hyperlink ref="H2" r:id="rId7" xr:uid="{9C46096F-C568-4EAE-8813-7DFB111E7A73}"/>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="H2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Donnés_Smartphone/Données Smartphone.xlsx
+++ b/Donnés_Smartphone/Données Smartphone.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t xml:space="preserve">Modèle </t>
   </si>
@@ -70,72 +70,39 @@
     <t xml:space="preserve">Google </t>
   </si>
   <si>
-    <t xml:space="preserve">6.7 </t>
-  </si>
-  <si>
     <t>Android 13</t>
   </si>
   <si>
-    <t>https://fdn2.gsmarena.com/vv/bigpic/google-pixel7-pro-new.jpg</t>
-  </si>
-  <si>
     <t>Pixel 7</t>
   </si>
   <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>https://fdn2.gsmarena.com/vv/bigpic/google-pixel7-new.jpg</t>
-  </si>
-  <si>
     <t>Pixel  6A</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1 </t>
-  </si>
-  <si>
     <t>Android 12</t>
   </si>
   <si>
-    <t>https://fdn2.gsmarena.com/vv/bigpic/google-pixel-6a.jpg</t>
-  </si>
-  <si>
     <t>iPhone 14</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
     <t>IOS 16</t>
   </si>
   <si>
-    <t>https://fdn2.gsmarena.com/vv/bigpic/apple-iphone-14.jpg</t>
-  </si>
-  <si>
     <t>iPhone 14 Pro</t>
   </si>
   <si>
-    <t>https://fdn2.gsmarena.com/vv/bigpic/apple-iphone-14-pro.jpg</t>
-  </si>
-  <si>
     <t>iPhone 14 Pro Max</t>
   </si>
   <si>
-    <t>https://fdn2.gsmarena.com/vv/bigpic/apple-iphone-14-pro-max-.jpg</t>
-  </si>
-  <si>
     <t>iPhone 13 Pro</t>
   </si>
   <si>
     <t>IOS 15</t>
   </si>
   <si>
-    <t>https://fdn2.gsmarena.com/vv/bigpic/apple-iphone-13-pro.jpg</t>
-  </si>
-  <si>
     <t>iPhone 13</t>
   </si>
   <si>
@@ -227,6 +194,84 @@
   </si>
   <si>
     <t>Sony Xperia 1 IV</t>
+  </si>
+  <si>
+    <t>MIUI 13</t>
+  </si>
+  <si>
+    <t>Android 11</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/google-pixel7-pro-new,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/google-pixel7-new,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/google-pixel-6a,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/apple-iphone-14,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/apple-iphone-14-pro,jpg</t>
+  </si>
+  <si>
+    <t>01,01,1900  00:38:00</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/apple-iphone-14-pro-max-,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/apple-iphone-13-pro,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/apple-iphone-13,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/xiaomi-12s-ultra,jpg</t>
+  </si>
+  <si>
+    <t>https://www,gsmarena,com/xiaomi_12s_pro-pictures-11651,php</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/xiaomi-redmi-12c,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/xiaomi-mi-11-lite-4g,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/oneplus-10t-5g,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/oneplus-11,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/oneplus-10-pro,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/oppo-reno8,jpg</t>
+  </si>
+  <si>
+    <t>https://fdn2,gsmarena,com/vv/bigpic/oppo-reno8-pro,jpg</t>
+  </si>
+  <si>
+    <t>6,7"</t>
+  </si>
+  <si>
+    <t>6,5"</t>
+  </si>
+  <si>
+    <t>6,1"</t>
+  </si>
+  <si>
+    <t>6,4"</t>
+  </si>
+  <si>
+    <t>6,3"</t>
+  </si>
+  <si>
+    <t>https://fdn2.gsmarena.com/vv/bigpic/nokia-c12.jpg</t>
   </si>
 </sst>
 </file>
@@ -251,18 +296,18 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -290,28 +335,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$CHF]"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,10 +386,10 @@
     <tableColumn id="2" name="Modèle "/>
     <tableColumn id="3" name="Marque"/>
     <tableColumn id="4" name="Mémoire ROM (Go)"/>
-    <tableColumn id="5" name="Taille écran (pouces)"/>
+    <tableColumn id="5" name="Taille écran (pouces)" dataDxfId="0"/>
     <tableColumn id="6" name="Prix (CHF)" dataDxfId="1"/>
     <tableColumn id="7" name="OS"/>
-    <tableColumn id="8" name="Autonomie (h)" dataDxfId="0"/>
+    <tableColumn id="8" name="Autonomie (h)" dataDxfId="2"/>
     <tableColumn id="9" name="Image (URL)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -344,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="I1:I32" totalsRowShown="0">
-  <autoFilter ref="I1:I32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="I1:I31" totalsRowShown="0">
+  <autoFilter ref="I1:I31"/>
   <tableColumns count="1">
     <tableColumn id="1" name="ID"/>
   </tableColumns>
@@ -618,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,20 +725,20 @@
       <c r="C2">
         <v>128</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3">
+        <v>694</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
-        <v>694</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.71805555555555556</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>13</v>
+      <c r="H2" t="s">
+        <v>55</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -693,7 +746,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -701,17 +754,17 @@
       <c r="C3">
         <v>128</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3">
         <v>419</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
+      <c r="H3" t="s">
+        <v>56</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -719,7 +772,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -727,20 +780,20 @@
       <c r="C4">
         <v>128</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="3">
         <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.83263888888888893</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
+      <c r="H4" t="s">
+        <v>57</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -748,28 +801,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>128</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3">
         <v>709</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="5">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4">
         <v>0.76944444444444438</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
+      <c r="H5" t="s">
+        <v>58</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -777,28 +830,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>256</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="3">
         <v>1259</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.72083333333333333</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>27</v>
+      <c r="H6" t="s">
+        <v>59</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -806,381 +859,531 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>512</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3">
         <v>1577</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1.0263888888888888</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
+      <c r="A8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>128</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="3">
         <v>999</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="5">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.67986111111111114</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>32</v>
+      <c r="H8" t="s">
+        <v>62</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
+      <c r="A9" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="G9" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>128</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3">
+        <v>649</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
       <c r="I9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>256</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3">
+        <v>920</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
       <c r="I10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="G11" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>128</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3">
+        <v>670</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
       <c r="I11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
       <c r="I12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="G13" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="3">
+        <v>297</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
       <c r="I13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>128</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="3">
+        <v>419</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
       <c r="I14">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>128</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3">
+        <v>645</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
       <c r="I15">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="G16" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="3">
+        <v>469</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
       <c r="I16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="G17" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>128</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="3">
+        <v>415</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
       <c r="I17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>256</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="3">
+        <v>728</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
       <c r="I18">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="G19" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
       <c r="I19">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="4"/>
       <c r="I20">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="G21" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="4"/>
       <c r="I21">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="4"/>
       <c r="I22">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="G23" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="4"/>
       <c r="I23">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="G24" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="4"/>
       <c r="I24">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="4"/>
       <c r="I25">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="G26" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="4"/>
       <c r="I26">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="G27" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="4"/>
       <c r="I27">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="G28" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="4"/>
       <c r="I28">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="G29" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3"/>
+      <c r="G29" s="4"/>
       <c r="I29">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="3"/>
+      <c r="G30" s="4"/>
       <c r="I30">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="G31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="3"/>
+      <c r="G31" s="4"/>
       <c r="I31">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="5"/>
+      <c r="G32" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H4" r:id="rId5"/>
-    <hyperlink ref="H3" r:id="rId6"/>
-    <hyperlink ref="H2" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>